--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ckp\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD206949-0B64-49F7-8273-A46DE98F617E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>CKP-R</t>
   </si>
@@ -130,26 +125,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -160,17 +170,14 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
@@ -184,96 +191,69 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -283,75 +263,72 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+  <cellXfs count="18">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -641,42 +618,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A16" sqref="A16:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="80" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -684,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -692,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -700,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -708,195 +684,189 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>100</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9" t="s">
+      <c r="B16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>2</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <v>100</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <v>100</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="14">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:J15"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C10"/>
@@ -905,8 +875,23 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="CKP-R" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>CKP-R</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Mengikuti pelatihan sakernas add</t>
+  </si>
+  <si>
+    <t>Pegawai yang Dinilai</t>
+  </si>
+  <si>
+    <t>Pejabat Penilai</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Iva</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -277,6 +289,9 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -622,17 +637,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16:J16"/>
+      <selection activeCell="B19" sqref="B19:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" customWidth="true" style="0"/>
-    <col min="3" max="3" width="80" customWidth="true" style="0"/>
+    <col min="3" max="3" width="65" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" customWidth="true" style="0"/>
     <col min="5" max="5" width="15" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
@@ -685,184 +700,262 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>1.0</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="17">
         <v>1.0</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
         <v>100.0</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <v>1.0</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="17">
         <v>1.0</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>100.0</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>1.0</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="17">
         <v>1.0</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>100.0</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="18" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -881,6 +974,20 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
